--- a/data/arrhythmia.xlsx
+++ b/data/arrhythmia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\basic_stats_R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0C0142-03DE-4494-83C1-1EE84F4EC681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582AD821-EB72-4959-BD51-D04B3B8760CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>QRS</t>
   </si>
   <si>
-    <t>heart_rate</t>
-  </si>
-  <si>
     <t>bmi</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>underweight</t>
+  </si>
+  <si>
+    <t>HR</t>
   </si>
 </sst>
 </file>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,13 +473,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -487,7 +487,7 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>190</v>
@@ -505,7 +505,7 @@
         <v>22.2</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -513,7 +513,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>165</v>
@@ -531,7 +531,7 @@
         <v>23.5</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>172</v>
@@ -557,7 +557,7 @@
         <v>32.1</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -565,7 +565,7 @@
         <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>175</v>
@@ -583,12 +583,12 @@
         <v>30.7</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>190</v>
@@ -606,7 +606,7 @@
         <v>22.2</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -614,7 +614,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>160</v>
@@ -632,7 +632,7 @@
         <v>20.3</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -640,7 +640,7 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>162</v>
@@ -658,7 +658,7 @@
         <v>20.6</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -666,7 +666,7 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>168</v>
@@ -684,7 +684,7 @@
         <v>19.8</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -692,7 +692,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>167</v>
@@ -710,7 +710,7 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -718,7 +718,7 @@
         <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>170</v>
@@ -736,7 +736,7 @@
         <v>24.9</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -744,7 +744,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>165</v>
@@ -762,7 +762,7 @@
         <v>31.6</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>172</v>
@@ -788,7 +788,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -796,7 +796,7 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>170</v>
@@ -814,7 +814,7 @@
         <v>25.3</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -822,7 +822,7 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>160</v>
@@ -840,7 +840,7 @@
         <v>34.4</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -848,7 +848,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>150</v>
@@ -866,7 +866,7 @@
         <v>21.3</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>171</v>
@@ -892,7 +892,7 @@
         <v>20.2</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -900,7 +900,7 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>158</v>
@@ -918,7 +918,7 @@
         <v>23.2</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -926,7 +926,7 @@
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>165</v>
@@ -944,7 +944,7 @@
         <v>23.1</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -952,7 +952,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>166</v>
@@ -970,12 +970,12 @@
         <v>26.1</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>160</v>
@@ -993,7 +993,7 @@
         <v>22.7</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1001,7 +1001,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>169</v>
@@ -1019,7 +1019,7 @@
         <v>23.5</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1027,7 +1027,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>153</v>
@@ -1045,7 +1045,7 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
         <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>165</v>
@@ -1071,7 +1071,7 @@
         <v>21.7</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1079,7 +1079,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>153</v>
@@ -1097,7 +1097,7 @@
         <v>23.5</v>
       </c>
       <c r="H25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1105,7 +1105,7 @@
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>169</v>
@@ -1123,7 +1123,7 @@
         <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1131,7 +1131,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>170</v>
@@ -1149,7 +1149,7 @@
         <v>25.3</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1157,7 +1157,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>160</v>
@@ -1175,7 +1175,7 @@
         <v>21.1</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1183,7 +1183,7 @@
         <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>164</v>
@@ -1201,7 +1201,7 @@
         <v>24.2</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1209,7 +1209,7 @@
         <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>160</v>
@@ -1227,7 +1227,7 @@
         <v>32.4</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1235,7 +1235,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>175</v>
@@ -1253,7 +1253,7 @@
         <v>27.8</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1261,7 +1261,7 @@
         <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>163</v>
@@ -1279,7 +1279,7 @@
         <v>25.6</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1287,7 +1287,7 @@
         <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>160</v>
@@ -1305,7 +1305,7 @@
         <v>28.5</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1313,7 +1313,7 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>155</v>
@@ -1331,7 +1331,7 @@
         <v>29.1</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>176</v>
@@ -1357,7 +1357,7 @@
         <v>24.2</v>
       </c>
       <c r="H35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1365,7 +1365,7 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>160</v>
@@ -1383,7 +1383,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1391,7 +1391,7 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>172</v>
@@ -1409,7 +1409,7 @@
         <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1417,7 +1417,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>164</v>
@@ -1435,7 +1435,7 @@
         <v>34.9</v>
       </c>
       <c r="H38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1443,7 +1443,7 @@
         <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>163</v>
@@ -1461,7 +1461,7 @@
         <v>22.6</v>
       </c>
       <c r="H39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1469,7 +1469,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>175</v>
@@ -1487,7 +1487,7 @@
         <v>26.1</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1495,7 +1495,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>157</v>
@@ -1513,7 +1513,7 @@
         <v>28.8</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1521,7 +1521,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>160</v>
@@ -1539,7 +1539,7 @@
         <v>29.3</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1547,7 +1547,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>160</v>
@@ -1565,7 +1565,7 @@
         <v>24.2</v>
       </c>
       <c r="H43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1573,7 +1573,7 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>165</v>
@@ -1591,7 +1591,7 @@
         <v>22.4</v>
       </c>
       <c r="H44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1599,7 +1599,7 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>160</v>
@@ -1617,7 +1617,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="H45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1625,7 +1625,7 @@
         <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46">
         <v>156</v>
@@ -1643,7 +1643,7 @@
         <v>22.6</v>
       </c>
       <c r="H46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -1651,7 +1651,7 @@
         <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <v>160</v>
@@ -1669,7 +1669,7 @@
         <v>27.7</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -1677,7 +1677,7 @@
         <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>158</v>
@@ -1695,7 +1695,7 @@
         <v>22.8</v>
       </c>
       <c r="H48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <v>159</v>
@@ -1721,7 +1721,7 @@
         <v>21.8</v>
       </c>
       <c r="H49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1729,7 +1729,7 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <v>159</v>
@@ -1747,12 +1747,12 @@
         <v>26.9</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>156</v>
@@ -1770,7 +1770,7 @@
         <v>21.8</v>
       </c>
       <c r="H51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1778,7 +1778,7 @@
         <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52">
         <v>156</v>
@@ -1796,7 +1796,7 @@
         <v>21.4</v>
       </c>
       <c r="H52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -1804,7 +1804,7 @@
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <v>172</v>
@@ -1822,7 +1822,7 @@
         <v>25.7</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>163</v>
@@ -1848,7 +1848,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="H54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -1856,7 +1856,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55">
         <v>165</v>
@@ -1874,7 +1874,7 @@
         <v>29.4</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -1882,7 +1882,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56">
         <v>160</v>
@@ -1900,7 +1900,7 @@
         <v>27.3</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -1908,7 +1908,7 @@
         <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57">
         <v>160</v>
@@ -1926,7 +1926,7 @@
         <v>24.6</v>
       </c>
       <c r="H57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58">
         <v>168</v>
@@ -1952,7 +1952,7 @@
         <v>28</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -1960,7 +1960,7 @@
         <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59">
         <v>165</v>
@@ -1978,7 +1978,7 @@
         <v>24.2</v>
       </c>
       <c r="H59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1986,7 +1986,7 @@
         <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60">
         <v>160</v>
@@ -2004,7 +2004,7 @@
         <v>22.7</v>
       </c>
       <c r="H60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2012,7 +2012,7 @@
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61">
         <v>160</v>
@@ -2030,7 +2030,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="H61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2038,7 +2038,7 @@
         <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62">
         <v>158</v>
@@ -2056,7 +2056,7 @@
         <v>23.2</v>
       </c>
       <c r="H62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2064,7 +2064,7 @@
         <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63">
         <v>162</v>
@@ -2082,7 +2082,7 @@
         <v>20.2</v>
       </c>
       <c r="H63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2090,7 +2090,7 @@
         <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64">
         <v>155</v>
@@ -2108,7 +2108,7 @@
         <v>22.9</v>
       </c>
       <c r="H64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2116,7 +2116,7 @@
         <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65">
         <v>155</v>
@@ -2134,7 +2134,7 @@
         <v>27.1</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2142,7 +2142,7 @@
         <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66">
         <v>160</v>
@@ -2160,7 +2160,7 @@
         <v>24.6</v>
       </c>
       <c r="H66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2168,7 +2168,7 @@
         <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67">
         <v>160</v>
@@ -2186,7 +2186,7 @@
         <v>25.4</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2194,7 +2194,7 @@
         <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68">
         <v>150</v>
@@ -2212,7 +2212,7 @@
         <v>31.6</v>
       </c>
       <c r="H68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2220,7 +2220,7 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69">
         <v>156</v>
@@ -2238,7 +2238,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="H69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2246,7 +2246,7 @@
         <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70">
         <v>155</v>
@@ -2264,7 +2264,7 @@
         <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2272,7 +2272,7 @@
         <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71">
         <v>182</v>
@@ -2290,7 +2290,7 @@
         <v>27.2</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2298,7 +2298,7 @@
         <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72">
         <v>161</v>
@@ -2316,7 +2316,7 @@
         <v>28.2</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2324,7 +2324,7 @@
         <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73">
         <v>163</v>
@@ -2342,7 +2342,7 @@
         <v>37.6</v>
       </c>
       <c r="H73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2350,7 +2350,7 @@
         <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74">
         <v>158</v>
@@ -2368,7 +2368,7 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2376,7 +2376,7 @@
         <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75">
         <v>165</v>
@@ -2394,7 +2394,7 @@
         <v>23.9</v>
       </c>
       <c r="H75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2402,7 +2402,7 @@
         <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76">
         <v>177</v>
@@ -2420,7 +2420,7 @@
         <v>23</v>
       </c>
       <c r="H76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2428,7 +2428,7 @@
         <v>37</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77">
         <v>171</v>
@@ -2446,7 +2446,7 @@
         <v>29.1</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2454,7 +2454,7 @@
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78">
         <v>165</v>
@@ -2472,7 +2472,7 @@
         <v>26.8</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2480,7 +2480,7 @@
         <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79">
         <v>156</v>
@@ -2498,7 +2498,7 @@
         <v>23</v>
       </c>
       <c r="H79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2506,7 +2506,7 @@
         <v>37</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80">
         <v>156</v>
@@ -2524,7 +2524,7 @@
         <v>21.4</v>
       </c>
       <c r="H80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2532,7 +2532,7 @@
         <v>57</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81">
         <v>177</v>
@@ -2550,7 +2550,7 @@
         <v>21.7</v>
       </c>
       <c r="H81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2558,7 +2558,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82">
         <v>150</v>
@@ -2576,7 +2576,7 @@
         <v>26.7</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -2584,7 +2584,7 @@
         <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83">
         <v>165</v>
@@ -2602,7 +2602,7 @@
         <v>27.9</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -2610,7 +2610,7 @@
         <v>63</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84">
         <v>160</v>
@@ -2628,7 +2628,7 @@
         <v>31.2</v>
       </c>
       <c r="H84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -2636,7 +2636,7 @@
         <v>75</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85">
         <v>159</v>
@@ -2654,7 +2654,7 @@
         <v>23.3</v>
       </c>
       <c r="H85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -2662,7 +2662,7 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86">
         <v>165</v>
@@ -2680,7 +2680,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -2688,7 +2688,7 @@
         <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87">
         <v>162</v>
@@ -2706,7 +2706,7 @@
         <v>24.8</v>
       </c>
       <c r="H87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -2714,7 +2714,7 @@
         <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88">
         <v>161</v>
@@ -2732,7 +2732,7 @@
         <v>27</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -2740,7 +2740,7 @@
         <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C89">
         <v>158</v>
@@ -2758,7 +2758,7 @@
         <v>28.8</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -2766,7 +2766,7 @@
         <v>52</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90">
         <v>155</v>
@@ -2784,7 +2784,7 @@
         <v>43.3</v>
       </c>
       <c r="H90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -2792,7 +2792,7 @@
         <v>64</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91">
         <v>155</v>
@@ -2810,7 +2810,7 @@
         <v>36.6</v>
       </c>
       <c r="H91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -2818,7 +2818,7 @@
         <v>63</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92">
         <v>163</v>
@@ -2836,7 +2836,7 @@
         <v>23.3</v>
       </c>
       <c r="H92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -2844,7 +2844,7 @@
         <v>62</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93">
         <v>165</v>
@@ -2862,7 +2862,7 @@
         <v>25.7</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -2870,7 +2870,7 @@
         <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C94">
         <v>168</v>
@@ -2888,7 +2888,7 @@
         <v>19.5</v>
       </c>
       <c r="H94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -2896,7 +2896,7 @@
         <v>55</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95">
         <v>185</v>
@@ -2914,7 +2914,7 @@
         <v>30.7</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -2922,7 +2922,7 @@
         <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96">
         <v>150</v>
@@ -2940,7 +2940,7 @@
         <v>24.4</v>
       </c>
       <c r="H96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -2948,7 +2948,7 @@
         <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97">
         <v>157</v>
@@ -2966,7 +2966,7 @@
         <v>25.2</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -2974,7 +2974,7 @@
         <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98">
         <v>155</v>
@@ -2992,7 +2992,7 @@
         <v>43.3</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -3000,7 +3000,7 @@
         <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C99">
         <v>160</v>
@@ -3018,7 +3018,7 @@
         <v>27.3</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3026,7 +3026,7 @@
         <v>51</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100">
         <v>156</v>
@@ -3044,7 +3044,7 @@
         <v>24.7</v>
       </c>
       <c r="H100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3052,7 +3052,7 @@
         <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C101">
         <v>155</v>
@@ -3070,7 +3070,7 @@
         <v>24.6</v>
       </c>
       <c r="H101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -3078,7 +3078,7 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C102">
         <v>157</v>
@@ -3096,7 +3096,7 @@
         <v>16.2</v>
       </c>
       <c r="H102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -3104,7 +3104,7 @@
         <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103">
         <v>170</v>
@@ -3122,7 +3122,7 @@
         <v>22.8</v>
       </c>
       <c r="H103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3130,7 +3130,7 @@
         <v>36</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104">
         <v>160</v>
@@ -3148,7 +3148,7 @@
         <v>25.4</v>
       </c>
       <c r="H104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -3156,7 +3156,7 @@
         <v>63</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105">
         <v>175</v>
@@ -3174,7 +3174,7 @@
         <v>26.1</v>
       </c>
       <c r="H105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3182,7 +3182,7 @@
         <v>46</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106">
         <v>165</v>
@@ -3200,7 +3200,7 @@
         <v>20.2</v>
       </c>
       <c r="H106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3208,7 +3208,7 @@
         <v>57</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C107">
         <v>153</v>
@@ -3226,7 +3226,7 @@
         <v>26.1</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3234,7 +3234,7 @@
         <v>50</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108">
         <v>184</v>
@@ -3252,7 +3252,7 @@
         <v>28.4</v>
       </c>
       <c r="H108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -3260,7 +3260,7 @@
         <v>71</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C109">
         <v>162</v>
@@ -3278,7 +3278,7 @@
         <v>27.4</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -3286,7 +3286,7 @@
         <v>43</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110">
         <v>176</v>
@@ -3304,7 +3304,7 @@
         <v>29.1</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -3312,7 +3312,7 @@
         <v>33</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C111">
         <v>163</v>
@@ -3330,7 +3330,7 @@
         <v>28.2</v>
       </c>
       <c r="H111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -3338,7 +3338,7 @@
         <v>29</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112">
         <v>172</v>
@@ -3356,7 +3356,7 @@
         <v>23.3</v>
       </c>
       <c r="H112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3364,7 +3364,7 @@
         <v>39</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C113">
         <v>160</v>
@@ -3382,7 +3382,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="H113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -3390,7 +3390,7 @@
         <v>74</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114">
         <v>172</v>
@@ -3408,7 +3408,7 @@
         <v>25</v>
       </c>
       <c r="H114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -3416,7 +3416,7 @@
         <v>28</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115">
         <v>159</v>
@@ -3434,7 +3434,7 @@
         <v>22.2</v>
       </c>
       <c r="H115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -3442,7 +3442,7 @@
         <v>24</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C116">
         <v>162</v>
@@ -3460,7 +3460,7 @@
         <v>28.6</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -3468,7 +3468,7 @@
         <v>58</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C117">
         <v>170</v>
@@ -3486,7 +3486,7 @@
         <v>26</v>
       </c>
       <c r="H117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -3494,7 +3494,7 @@
         <v>69</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C118">
         <v>154</v>
@@ -3512,7 +3512,7 @@
         <v>24.9</v>
       </c>
       <c r="H118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -3520,7 +3520,7 @@
         <v>50</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119">
         <v>164</v>
@@ -3538,7 +3538,7 @@
         <v>27.9</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -3546,7 +3546,7 @@
         <v>72</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120">
         <v>170</v>
@@ -3564,7 +3564,7 @@
         <v>25.6</v>
       </c>
       <c r="H120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -3572,7 +3572,7 @@
         <v>71</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121">
         <v>170</v>
@@ -3590,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -3598,7 +3598,7 @@
         <v>37</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C122">
         <v>159</v>
@@ -3616,7 +3616,7 @@
         <v>22.2</v>
       </c>
       <c r="H122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -3624,7 +3624,7 @@
         <v>25</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C123">
         <v>162</v>
@@ -3642,7 +3642,7 @@
         <v>29.7</v>
       </c>
       <c r="H123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -3650,7 +3650,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124">
         <v>186</v>
@@ -3668,7 +3668,7 @@
         <v>5.2</v>
       </c>
       <c r="H124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -3676,7 +3676,7 @@
         <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125">
         <v>185</v>
@@ -3694,7 +3694,7 @@
         <v>27.8</v>
       </c>
       <c r="H125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -3702,7 +3702,7 @@
         <v>53</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C126">
         <v>155</v>
@@ -3720,7 +3720,7 @@
         <v>26.2</v>
       </c>
       <c r="H126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -3728,7 +3728,7 @@
         <v>46</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127">
         <v>163</v>
@@ -3746,7 +3746,7 @@
         <v>32.4</v>
       </c>
       <c r="H127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -3754,7 +3754,7 @@
         <v>56</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128">
         <v>165</v>
@@ -3772,7 +3772,7 @@
         <v>19.8</v>
       </c>
       <c r="H128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -3780,7 +3780,7 @@
         <v>48</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C129">
         <v>165</v>
@@ -3798,7 +3798,7 @@
         <v>25.7</v>
       </c>
       <c r="H129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -3806,7 +3806,7 @@
         <v>39</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C130">
         <v>157</v>
@@ -3824,7 +3824,7 @@
         <v>22.7</v>
       </c>
       <c r="H130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -3832,7 +3832,7 @@
         <v>46</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131">
         <v>177</v>
@@ -3850,7 +3850,7 @@
         <v>28.7</v>
       </c>
       <c r="H131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -3858,7 +3858,7 @@
         <v>41</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C132">
         <v>155</v>
@@ -3876,7 +3876,7 @@
         <v>23.3</v>
       </c>
       <c r="H132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -3884,7 +3884,7 @@
         <v>40</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133">
         <v>172</v>
@@ -3902,7 +3902,7 @@
         <v>20.3</v>
       </c>
       <c r="H133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -3910,7 +3910,7 @@
         <v>47</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C134">
         <v>168</v>
@@ -3928,7 +3928,7 @@
         <v>22.7</v>
       </c>
       <c r="H134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -3936,7 +3936,7 @@
         <v>47</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135">
         <v>162</v>
@@ -3954,7 +3954,7 @@
         <v>28.2</v>
       </c>
       <c r="H135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -3962,7 +3962,7 @@
         <v>35</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C136">
         <v>162</v>
@@ -3980,7 +3980,7 @@
         <v>25.9</v>
       </c>
       <c r="H136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -3988,7 +3988,7 @@
         <v>51</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C137">
         <v>160</v>
@@ -4006,7 +4006,7 @@
         <v>31.2</v>
       </c>
       <c r="H137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -4014,7 +4014,7 @@
         <v>35</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138">
         <v>170</v>
@@ -4032,7 +4032,7 @@
         <v>27.7</v>
       </c>
       <c r="H138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -4040,7 +4040,7 @@
         <v>49</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139">
         <v>166</v>
@@ -4058,7 +4058,7 @@
         <v>26.5</v>
       </c>
       <c r="H139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -4066,7 +4066,7 @@
         <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C140">
         <v>150</v>
@@ -4084,7 +4084,7 @@
         <v>28.4</v>
       </c>
       <c r="H140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -4092,7 +4092,7 @@
         <v>34</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C141">
         <v>175</v>
@@ -4110,7 +4110,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="H141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -4118,7 +4118,7 @@
         <v>36</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142">
         <v>168</v>
@@ -4136,7 +4136,7 @@
         <v>26.6</v>
       </c>
       <c r="H142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -4144,7 +4144,7 @@
         <v>18</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143">
         <v>175</v>
@@ -4162,7 +4162,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="H143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -4170,7 +4170,7 @@
         <v>34</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C144">
         <v>155</v>
@@ -4188,7 +4188,7 @@
         <v>22.5</v>
       </c>
       <c r="H144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -4196,7 +4196,7 @@
         <v>39</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C145">
         <v>160</v>
@@ -4214,7 +4214,7 @@
         <v>24.2</v>
       </c>
       <c r="H145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4222,7 +4222,7 @@
         <v>48</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C146">
         <v>156</v>
@@ -4240,7 +4240,7 @@
         <v>25.5</v>
       </c>
       <c r="H146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -4248,7 +4248,7 @@
         <v>32</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147">
         <v>173</v>
@@ -4266,7 +4266,7 @@
         <v>25.1</v>
       </c>
       <c r="H147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -4274,7 +4274,7 @@
         <v>36</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148">
         <v>172</v>
@@ -4292,7 +4292,7 @@
         <v>30.4</v>
       </c>
       <c r="H148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -4300,7 +4300,7 @@
         <v>34</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C149">
         <v>167</v>
@@ -4318,7 +4318,7 @@
         <v>21.5</v>
       </c>
       <c r="H149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -4326,7 +4326,7 @@
         <v>27</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C150">
         <v>161</v>
@@ -4344,7 +4344,7 @@
         <v>19.7</v>
       </c>
       <c r="H150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -4352,7 +4352,7 @@
         <v>45</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151">
         <v>169</v>
@@ -4370,7 +4370,7 @@
         <v>25.6</v>
       </c>
       <c r="H151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -4378,7 +4378,7 @@
         <v>45</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C152">
         <v>162</v>
@@ -4396,7 +4396,7 @@
         <v>23.2</v>
       </c>
       <c r="H152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -4404,7 +4404,7 @@
         <v>60</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C153">
         <v>160</v>
@@ -4422,7 +4422,7 @@
         <v>32.4</v>
       </c>
       <c r="H153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -4430,7 +4430,7 @@
         <v>59</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154">
         <v>161</v>
@@ -4448,7 +4448,7 @@
         <v>27</v>
       </c>
       <c r="H154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -4456,7 +4456,7 @@
         <v>46</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C155">
         <v>153</v>
@@ -4474,7 +4474,7 @@
         <v>29.9</v>
       </c>
       <c r="H155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -4482,7 +4482,7 @@
         <v>42</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C156">
         <v>170</v>
@@ -4500,7 +4500,7 @@
         <v>27.7</v>
       </c>
       <c r="H156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -4508,7 +4508,7 @@
         <v>42</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C157">
         <v>160</v>
@@ -4526,7 +4526,7 @@
         <v>26.6</v>
       </c>
       <c r="H157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -4534,7 +4534,7 @@
         <v>54</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158">
         <v>170</v>
@@ -4552,7 +4552,7 @@
         <v>27</v>
       </c>
       <c r="H158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -4560,7 +4560,7 @@
         <v>24</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159">
         <v>176</v>
@@ -4578,7 +4578,7 @@
         <v>23.2</v>
       </c>
       <c r="H159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -4586,7 +4586,7 @@
         <v>40</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C160">
         <v>165</v>
@@ -4604,7 +4604,7 @@
         <v>19.5</v>
       </c>
       <c r="H160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -4612,7 +4612,7 @@
         <v>25</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C161">
         <v>162</v>
@@ -4630,7 +4630,7 @@
         <v>18.3</v>
       </c>
       <c r="H161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -4638,7 +4638,7 @@
         <v>68</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C162">
         <v>168</v>
@@ -4656,7 +4656,7 @@
         <v>20.9</v>
       </c>
       <c r="H162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -4664,7 +4664,7 @@
         <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C163">
         <v>156</v>
@@ -4682,7 +4682,7 @@
         <v>19.3</v>
       </c>
       <c r="H163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -4690,7 +4690,7 @@
         <v>73</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C164">
         <v>160</v>
@@ -4708,7 +4708,7 @@
         <v>31.2</v>
       </c>
       <c r="H164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -4716,7 +4716,7 @@
         <v>40</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165">
         <v>160</v>
@@ -4734,7 +4734,7 @@
         <v>27.3</v>
       </c>
       <c r="H165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -4742,7 +4742,7 @@
         <v>44</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166">
         <v>178</v>
@@ -4760,7 +4760,7 @@
         <v>28.1</v>
       </c>
       <c r="H166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -4768,7 +4768,7 @@
         <v>50</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167">
         <v>168</v>
@@ -4786,7 +4786,7 @@
         <v>28.3</v>
       </c>
       <c r="H167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -4794,7 +4794,7 @@
         <v>32</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C168">
         <v>163</v>
@@ -4812,7 +4812,7 @@
         <v>24.5</v>
       </c>
       <c r="H168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -4820,7 +4820,7 @@
         <v>56</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169">
         <v>168</v>
@@ -4838,7 +4838,7 @@
         <v>26.9</v>
       </c>
       <c r="H169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -4846,7 +4846,7 @@
         <v>55</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C170">
         <v>156</v>
@@ -4864,7 +4864,7 @@
         <v>32.1</v>
       </c>
       <c r="H170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -4872,7 +4872,7 @@
         <v>54</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C171">
         <v>160</v>
@@ -4890,7 +4890,7 @@
         <v>25</v>
       </c>
       <c r="H171" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -4898,7 +4898,7 @@
         <v>64</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C172">
         <v>160</v>
@@ -4916,7 +4916,7 @@
         <v>26.2</v>
       </c>
       <c r="H172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -4924,7 +4924,7 @@
         <v>27</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C173">
         <v>155</v>
@@ -4942,7 +4942,7 @@
         <v>22.9</v>
       </c>
       <c r="H173" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -4950,7 +4950,7 @@
         <v>66</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174">
         <v>167</v>
@@ -4968,7 +4968,7 @@
         <v>25.1</v>
       </c>
       <c r="H174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -4976,7 +4976,7 @@
         <v>56</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C175">
         <v>162</v>
@@ -4994,7 +4994,7 @@
         <v>24.4</v>
       </c>
       <c r="H175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -5002,7 +5002,7 @@
         <v>63</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C176">
         <v>156</v>
@@ -5020,7 +5020,7 @@
         <v>28.8</v>
       </c>
       <c r="H176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -5028,7 +5028,7 @@
         <v>18</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177">
         <v>175</v>
@@ -5046,7 +5046,7 @@
         <v>21.6</v>
       </c>
       <c r="H177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -5054,7 +5054,7 @@
         <v>44</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178">
         <v>179</v>
@@ -5072,7 +5072,7 @@
         <v>26.5</v>
       </c>
       <c r="H178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -5080,7 +5080,7 @@
         <v>57</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179">
         <v>175</v>
@@ -5098,7 +5098,7 @@
         <v>26.1</v>
       </c>
       <c r="H179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -5106,7 +5106,7 @@
         <v>65</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C180">
         <v>155</v>
@@ -5124,7 +5124,7 @@
         <v>28.3</v>
       </c>
       <c r="H180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -5132,7 +5132,7 @@
         <v>61</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C181">
         <v>170</v>
@@ -5150,7 +5150,7 @@
         <v>27</v>
       </c>
       <c r="H181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -5158,7 +5158,7 @@
         <v>47</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C182">
         <v>163</v>
@@ -5176,7 +5176,7 @@
         <v>20.7</v>
       </c>
       <c r="H182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -5184,7 +5184,7 @@
         <v>62</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183">
         <v>170</v>
@@ -5202,7 +5202,7 @@
         <v>29.4</v>
       </c>
       <c r="H183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -5210,7 +5210,7 @@
         <v>22</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C184">
         <v>165</v>
@@ -5228,7 +5228,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="H184" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -5236,7 +5236,7 @@
         <v>66</v>
       </c>
       <c r="B185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C185">
         <v>156</v>
@@ -5254,7 +5254,7 @@
         <v>32.9</v>
       </c>
       <c r="H185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -5262,7 +5262,7 @@
         <v>49</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C186">
         <v>166</v>
@@ -5280,7 +5280,7 @@
         <v>22.5</v>
       </c>
       <c r="H186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -5288,7 +5288,7 @@
         <v>60</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C187">
         <v>160</v>
@@ -5306,7 +5306,7 @@
         <v>23.8</v>
       </c>
       <c r="H187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -5314,7 +5314,7 @@
         <v>65</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188">
         <v>180</v>
@@ -5332,7 +5332,7 @@
         <v>24.4</v>
       </c>
       <c r="H188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -5340,7 +5340,7 @@
         <v>36</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C189">
         <v>172</v>
@@ -5358,7 +5358,7 @@
         <v>27.4</v>
       </c>
       <c r="H189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -5366,7 +5366,7 @@
         <v>44</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C190">
         <v>173</v>
@@ -5384,7 +5384,7 @@
         <v>23.7</v>
       </c>
       <c r="H190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -5392,7 +5392,7 @@
         <v>27</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C191">
         <v>155</v>
@@ -5410,7 +5410,7 @@
         <v>18.7</v>
       </c>
       <c r="H191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -5418,7 +5418,7 @@
         <v>21</v>
       </c>
       <c r="B192" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C192">
         <v>166</v>
@@ -5436,7 +5436,7 @@
         <v>24.7</v>
       </c>
       <c r="H192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -5444,7 +5444,7 @@
         <v>46</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193">
         <v>168</v>
@@ -5462,7 +5462,7 @@
         <v>21.3</v>
       </c>
       <c r="H193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -5470,7 +5470,7 @@
         <v>58</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C194">
         <v>155</v>
@@ -5488,7 +5488,7 @@
         <v>25</v>
       </c>
       <c r="H194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -5496,7 +5496,7 @@
         <v>70</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C195">
         <v>160</v>
@@ -5514,7 +5514,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="H195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -5522,7 +5522,7 @@
         <v>64</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C196">
         <v>160</v>
@@ -5540,7 +5540,7 @@
         <v>31.2</v>
       </c>
       <c r="H196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -5548,7 +5548,7 @@
         <v>50</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C197">
         <v>159</v>
@@ -5566,7 +5566,7 @@
         <v>27.7</v>
       </c>
       <c r="H197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -5574,7 +5574,7 @@
         <v>35</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C198">
         <v>160</v>
@@ -5592,7 +5592,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="H198" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -5600,7 +5600,7 @@
         <v>33</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199">
         <v>168</v>
@@ -5618,7 +5618,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="H199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -5626,7 +5626,7 @@
         <v>46</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C200">
         <v>162</v>
@@ -5644,7 +5644,7 @@
         <v>24.8</v>
       </c>
       <c r="H200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -5652,7 +5652,7 @@
         <v>53</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201">
         <v>178</v>
@@ -5670,7 +5670,7 @@
         <v>26.5</v>
       </c>
       <c r="H201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -5678,7 +5678,7 @@
         <v>62</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202">
         <v>176</v>
@@ -5696,7 +5696,7 @@
         <v>23.6</v>
       </c>
       <c r="H202" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -5704,7 +5704,7 @@
         <v>42</v>
       </c>
       <c r="B203" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C203">
         <v>157</v>
@@ -5722,7 +5722,7 @@
         <v>26.4</v>
       </c>
       <c r="H203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -5730,7 +5730,7 @@
         <v>47</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204">
         <v>176</v>
@@ -5748,7 +5748,7 @@
         <v>30.7</v>
       </c>
       <c r="H204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -5756,7 +5756,7 @@
         <v>18</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205">
         <v>180</v>
@@ -5774,7 +5774,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="H205" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -5782,7 +5782,7 @@
         <v>63</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206">
         <v>174</v>
@@ -5800,7 +5800,7 @@
         <v>26.1</v>
       </c>
       <c r="H206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -5808,7 +5808,7 @@
         <v>53</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207">
         <v>169</v>
@@ -5826,7 +5826,7 @@
         <v>61.6</v>
       </c>
       <c r="H207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -5834,7 +5834,7 @@
         <v>49</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C208">
         <v>160</v>
@@ -5852,7 +5852,7 @@
         <v>31.2</v>
       </c>
       <c r="H208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -5860,7 +5860,7 @@
         <v>30</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C209">
         <v>160</v>
@@ -5878,7 +5878,7 @@
         <v>25.4</v>
       </c>
       <c r="H209" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -5886,7 +5886,7 @@
         <v>66</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C210">
         <v>160</v>
@@ -5904,7 +5904,7 @@
         <v>23.4</v>
       </c>
       <c r="H210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -5912,7 +5912,7 @@
         <v>50</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211">
         <v>170</v>
@@ -5930,7 +5930,7 @@
         <v>27.7</v>
       </c>
       <c r="H211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -5938,7 +5938,7 @@
         <v>77</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212">
         <v>165</v>
@@ -5956,7 +5956,7 @@
         <v>28.3</v>
       </c>
       <c r="H212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -5964,7 +5964,7 @@
         <v>47</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C213">
         <v>165</v>
@@ -5982,7 +5982,7 @@
         <v>24.6</v>
       </c>
       <c r="H213" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -5990,7 +5990,7 @@
         <v>42</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214">
         <v>178</v>
@@ -6008,7 +6008,7 @@
         <v>23.7</v>
       </c>
       <c r="H214" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -6016,7 +6016,7 @@
         <v>56</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215">
         <v>173</v>
@@ -6034,7 +6034,7 @@
         <v>28.1</v>
       </c>
       <c r="H215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -6042,7 +6042,7 @@
         <v>83</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C216">
         <v>160</v>
@@ -6060,7 +6060,7 @@
         <v>21.5</v>
       </c>
       <c r="H216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -6068,7 +6068,7 @@
         <v>42</v>
       </c>
       <c r="B217" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C217">
         <v>165</v>
@@ -6086,7 +6086,7 @@
         <v>19.8</v>
       </c>
       <c r="H217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -6094,7 +6094,7 @@
         <v>67</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218">
         <v>171</v>
@@ -6112,7 +6112,7 @@
         <v>22.9</v>
       </c>
       <c r="H218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
@@ -6120,7 +6120,7 @@
         <v>37</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C219">
         <v>168</v>
@@ -6138,7 +6138,7 @@
         <v>29.1</v>
       </c>
       <c r="H219" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
@@ -6146,7 +6146,7 @@
         <v>43</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220">
         <v>172</v>
@@ -6164,7 +6164,7 @@
         <v>30.4</v>
       </c>
       <c r="H220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -6172,7 +6172,7 @@
         <v>36</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C221">
         <v>170</v>
@@ -6190,7 +6190,7 @@
         <v>29.4</v>
       </c>
       <c r="H221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -6198,7 +6198,7 @@
         <v>49</v>
       </c>
       <c r="B222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C222">
         <v>170</v>
@@ -6216,7 +6216,7 @@
         <v>27.3</v>
       </c>
       <c r="H222" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -6224,7 +6224,7 @@
         <v>72</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223">
         <v>171</v>
@@ -6242,7 +6242,7 @@
         <v>25.3</v>
       </c>
       <c r="H223" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -6250,7 +6250,7 @@
         <v>80</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224">
         <v>173</v>
@@ -6268,7 +6268,7 @@
         <v>28.4</v>
       </c>
       <c r="H224" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -6276,7 +6276,7 @@
         <v>22</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C225">
         <v>163</v>
@@ -6294,7 +6294,7 @@
         <v>18.8</v>
       </c>
       <c r="H225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -6302,7 +6302,7 @@
         <v>57</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226">
         <v>164</v>
@@ -6320,7 +6320,7 @@
         <v>23.8</v>
       </c>
       <c r="H226" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -6328,7 +6328,7 @@
         <v>46</v>
       </c>
       <c r="B227" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C227">
         <v>165</v>
@@ -6346,7 +6346,7 @@
         <v>30.5</v>
       </c>
       <c r="H227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -6354,7 +6354,7 @@
         <v>45</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228">
         <v>173</v>
@@ -6372,7 +6372,7 @@
         <v>23.4</v>
       </c>
       <c r="H228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
@@ -6380,7 +6380,7 @@
         <v>43</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229">
         <v>176</v>
@@ -6398,7 +6398,7 @@
         <v>23.2</v>
       </c>
       <c r="H229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -6406,7 +6406,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C230">
         <v>149</v>
@@ -6424,7 +6424,7 @@
         <v>21.6</v>
       </c>
       <c r="H230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -6432,7 +6432,7 @@
         <v>56</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231">
         <v>170</v>
@@ -6450,7 +6450,7 @@
         <v>27.7</v>
       </c>
       <c r="H231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -6458,7 +6458,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C232">
         <v>165</v>
@@ -6476,7 +6476,7 @@
         <v>36</v>
       </c>
       <c r="H232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -6484,7 +6484,7 @@
         <v>43</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233">
         <v>160</v>
@@ -6502,7 +6502,7 @@
         <v>21.1</v>
       </c>
       <c r="H233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -6510,7 +6510,7 @@
         <v>62</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C234">
         <v>155</v>
@@ -6528,7 +6528,7 @@
         <v>32.5</v>
       </c>
       <c r="H234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -6536,7 +6536,7 @@
         <v>46</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235">
         <v>177</v>
@@ -6554,7 +6554,7 @@
         <v>27.1</v>
       </c>
       <c r="H235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -6562,7 +6562,7 @@
         <v>49</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C236">
         <v>166</v>
@@ -6580,7 +6580,7 @@
         <v>31.6</v>
       </c>
       <c r="H236" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -6588,7 +6588,7 @@
         <v>72</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C237">
         <v>165</v>
@@ -6606,7 +6606,7 @@
         <v>25</v>
       </c>
       <c r="H237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -6614,7 +6614,7 @@
         <v>60</v>
       </c>
       <c r="B238" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C238">
         <v>155</v>
@@ -6632,7 +6632,7 @@
         <v>27.1</v>
       </c>
       <c r="H238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -6640,7 +6640,7 @@
         <v>48</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239">
         <v>157</v>
@@ -6658,7 +6658,7 @@
         <v>38.5</v>
       </c>
       <c r="H239" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -6666,7 +6666,7 @@
         <v>52</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C240">
         <v>153</v>
@@ -6684,7 +6684,7 @@
         <v>23.5</v>
       </c>
       <c r="H240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -6692,7 +6692,7 @@
         <v>44</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C241">
         <v>160</v>
@@ -6710,7 +6710,7 @@
         <v>25</v>
       </c>
       <c r="H241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -6718,7 +6718,7 @@
         <v>46</v>
       </c>
       <c r="B242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C242">
         <v>165</v>
@@ -6736,7 +6736,7 @@
         <v>22</v>
       </c>
       <c r="H242" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -6744,7 +6744,7 @@
         <v>58</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243">
         <v>175</v>
@@ -6762,7 +6762,7 @@
         <v>25.5</v>
       </c>
       <c r="H243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -6770,7 +6770,7 @@
         <v>46</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244">
         <v>170</v>
@@ -6788,7 +6788,7 @@
         <v>27.7</v>
       </c>
       <c r="H244" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -6796,7 +6796,7 @@
         <v>59</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245">
         <v>160</v>
@@ -6814,7 +6814,7 @@
         <v>26.6</v>
       </c>
       <c r="H245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
@@ -6822,7 +6822,7 @@
         <v>66</v>
       </c>
       <c r="B246" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C246">
         <v>160</v>
@@ -6840,7 +6840,7 @@
         <v>48.4</v>
       </c>
       <c r="H246" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -6848,7 +6848,7 @@
         <v>68</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247">
         <v>164</v>
@@ -6866,7 +6866,7 @@
         <v>19.7</v>
       </c>
       <c r="H247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -6874,7 +6874,7 @@
         <v>53</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248">
         <v>165</v>
@@ -6892,7 +6892,7 @@
         <v>23.5</v>
       </c>
       <c r="H248" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -6900,7 +6900,7 @@
         <v>45</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249">
         <v>170</v>
@@ -6918,7 +6918,7 @@
         <v>25.6</v>
       </c>
       <c r="H249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
@@ -6926,7 +6926,7 @@
         <v>48</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250">
         <v>178</v>
@@ -6944,7 +6944,7 @@
         <v>25.2</v>
       </c>
       <c r="H250" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -6952,7 +6952,7 @@
         <v>44</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251">
         <v>170</v>
@@ -6970,7 +6970,7 @@
         <v>26</v>
       </c>
       <c r="H251" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -6978,7 +6978,7 @@
         <v>33</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C252">
         <v>165</v>
@@ -6996,7 +6996,7 @@
         <v>31.2</v>
       </c>
       <c r="H252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
@@ -7004,7 +7004,7 @@
         <v>35</v>
       </c>
       <c r="B253" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C253">
         <v>160</v>
@@ -7022,7 +7022,7 @@
         <v>26.2</v>
       </c>
       <c r="H253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
@@ -7030,7 +7030,7 @@
         <v>39</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C254">
         <v>160</v>
@@ -7048,7 +7048,7 @@
         <v>28.9</v>
       </c>
       <c r="H254" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -7056,7 +7056,7 @@
         <v>38</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C255">
         <v>170</v>
@@ -7074,7 +7074,7 @@
         <v>32.9</v>
       </c>
       <c r="H255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -7082,7 +7082,7 @@
         <v>34</v>
       </c>
       <c r="B256" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C256">
         <v>150</v>
@@ -7100,7 +7100,7 @@
         <v>20</v>
       </c>
       <c r="H256" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -7108,7 +7108,7 @@
         <v>35</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C257">
         <v>155</v>
@@ -7126,7 +7126,7 @@
         <v>22.9</v>
       </c>
       <c r="H257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -7134,7 +7134,7 @@
         <v>58</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C258">
         <v>160</v>
@@ -7152,7 +7152,7 @@
         <v>24.2</v>
       </c>
       <c r="H258" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -7160,7 +7160,7 @@
         <v>50</v>
       </c>
       <c r="B259" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C259">
         <v>174</v>
@@ -7178,7 +7178,7 @@
         <v>29.7</v>
       </c>
       <c r="H259" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
@@ -7186,7 +7186,7 @@
         <v>43</v>
       </c>
       <c r="B260" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C260">
         <v>163</v>
@@ -7204,7 +7204,7 @@
         <v>32</v>
       </c>
       <c r="H260" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -7212,7 +7212,7 @@
         <v>50</v>
       </c>
       <c r="B261" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C261">
         <v>160</v>
@@ -7230,7 +7230,7 @@
         <v>41.4</v>
       </c>
       <c r="H261" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -7238,7 +7238,7 @@
         <v>72</v>
       </c>
       <c r="B262" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C262">
         <v>160</v>
@@ -7256,7 +7256,7 @@
         <v>27.3</v>
       </c>
       <c r="H262" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
@@ -7264,7 +7264,7 @@
         <v>48</v>
       </c>
       <c r="B263" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C263">
         <v>158</v>
@@ -7282,7 +7282,7 @@
         <v>20.8</v>
       </c>
       <c r="H263" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
@@ -7290,7 +7290,7 @@
         <v>61</v>
       </c>
       <c r="B264" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C264">
         <v>171</v>
@@ -7308,7 +7308,7 @@
         <v>23.9</v>
       </c>
       <c r="H264" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
@@ -7316,7 +7316,7 @@
         <v>63</v>
       </c>
       <c r="B265" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C265">
         <v>160</v>
@@ -7334,7 +7334,7 @@
         <v>24.6</v>
       </c>
       <c r="H265" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -7342,7 +7342,7 @@
         <v>61</v>
       </c>
       <c r="B266" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C266">
         <v>154</v>
@@ -7360,7 +7360,7 @@
         <v>26.6</v>
       </c>
       <c r="H266" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
@@ -7368,7 +7368,7 @@
         <v>64</v>
       </c>
       <c r="B267" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C267">
         <v>156</v>
@@ -7386,7 +7386,7 @@
         <v>30</v>
       </c>
       <c r="H267" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
@@ -7394,7 +7394,7 @@
         <v>32</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C268">
         <v>157</v>
@@ -7412,7 +7412,7 @@
         <v>23.5</v>
       </c>
       <c r="H268" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -7420,7 +7420,7 @@
         <v>58</v>
       </c>
       <c r="B269" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C269">
         <v>150</v>
@@ -7438,7 +7438,7 @@
         <v>34.700000000000003</v>
       </c>
       <c r="H269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
@@ -7446,7 +7446,7 @@
         <v>48</v>
       </c>
       <c r="B270" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C270">
         <v>160</v>
@@ -7464,7 +7464,7 @@
         <v>23.8</v>
       </c>
       <c r="H270" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -7472,7 +7472,7 @@
         <v>31</v>
       </c>
       <c r="B271" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C271">
         <v>168</v>
@@ -7490,7 +7490,7 @@
         <v>28.3</v>
       </c>
       <c r="H271" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -7498,7 +7498,7 @@
         <v>41</v>
       </c>
       <c r="B272" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C272">
         <v>175</v>
@@ -7516,7 +7516,7 @@
         <v>31.7</v>
       </c>
       <c r="H272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
@@ -7524,7 +7524,7 @@
         <v>49</v>
       </c>
       <c r="B273" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C273">
         <v>170</v>
@@ -7542,7 +7542,7 @@
         <v>27.7</v>
       </c>
       <c r="H273" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
@@ -7550,7 +7550,7 @@
         <v>57</v>
       </c>
       <c r="B274" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C274">
         <v>175</v>
@@ -7568,7 +7568,7 @@
         <v>26.4</v>
       </c>
       <c r="H274" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
@@ -7576,7 +7576,7 @@
         <v>35</v>
       </c>
       <c r="B275" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C275">
         <v>165</v>
@@ -7594,7 +7594,7 @@
         <v>34.9</v>
       </c>
       <c r="H275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
@@ -7602,7 +7602,7 @@
         <v>73</v>
       </c>
       <c r="B276" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C276">
         <v>165</v>
@@ -7620,7 +7620,7 @@
         <v>21.3</v>
       </c>
       <c r="H276" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
@@ -7628,7 +7628,7 @@
         <v>65</v>
       </c>
       <c r="B277" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C277">
         <v>175</v>
@@ -7646,7 +7646,7 @@
         <v>21.2</v>
       </c>
       <c r="H277" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
@@ -7654,7 +7654,7 @@
         <v>33</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C278">
         <v>160</v>
@@ -7672,7 +7672,7 @@
         <v>27</v>
       </c>
       <c r="H278" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -7680,7 +7680,7 @@
         <v>35</v>
       </c>
       <c r="B279" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C279">
         <v>155</v>
@@ -7698,7 +7698,7 @@
         <v>24.1</v>
       </c>
       <c r="H279" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -7706,7 +7706,7 @@
         <v>57</v>
       </c>
       <c r="B280" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C280">
         <v>175</v>
@@ -7724,7 +7724,7 @@
         <v>22.9</v>
       </c>
       <c r="H280" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
@@ -7732,7 +7732,7 @@
         <v>50</v>
       </c>
       <c r="B281" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C281">
         <v>163</v>
@@ -7750,7 +7750,7 @@
         <v>21.8</v>
       </c>
       <c r="H281" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -7758,7 +7758,7 @@
         <v>60</v>
       </c>
       <c r="B282" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C282">
         <v>158</v>
@@ -7776,7 +7776,7 @@
         <v>30</v>
       </c>
       <c r="H282" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -7784,7 +7784,7 @@
         <v>45</v>
       </c>
       <c r="B283" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C283">
         <v>170</v>
@@ -7802,7 +7802,7 @@
         <v>25.6</v>
       </c>
       <c r="H283" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -7810,7 +7810,7 @@
         <v>40</v>
       </c>
       <c r="B284" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C284">
         <v>178</v>
@@ -7828,7 +7828,7 @@
         <v>24</v>
       </c>
       <c r="H284" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
@@ -7836,7 +7836,7 @@
         <v>55</v>
       </c>
       <c r="B285" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C285">
         <v>173</v>
@@ -7854,7 +7854,7 @@
         <v>25.1</v>
       </c>
       <c r="H285" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
@@ -7862,7 +7862,7 @@
         <v>44</v>
       </c>
       <c r="B286" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C286">
         <v>160</v>
@@ -7880,7 +7880,7 @@
         <v>25.4</v>
       </c>
       <c r="H286" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
@@ -7888,7 +7888,7 @@
         <v>33</v>
       </c>
       <c r="B287" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C287">
         <v>160</v>
@@ -7906,7 +7906,7 @@
         <v>25</v>
       </c>
       <c r="H287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
@@ -7914,7 +7914,7 @@
         <v>59</v>
       </c>
       <c r="B288" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C288">
         <v>160</v>
@@ -7932,7 +7932,7 @@
         <v>28.1</v>
       </c>
       <c r="H288" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -7940,7 +7940,7 @@
         <v>51</v>
       </c>
       <c r="B289" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C289">
         <v>170</v>
@@ -7958,7 +7958,7 @@
         <v>28.4</v>
       </c>
       <c r="H289" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
@@ -7966,7 +7966,7 @@
         <v>59</v>
       </c>
       <c r="B290" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C290">
         <v>165</v>
@@ -7984,7 +7984,7 @@
         <v>23.9</v>
       </c>
       <c r="H290" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
@@ -7992,7 +7992,7 @@
         <v>63</v>
       </c>
       <c r="B291" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C291">
         <v>164</v>
@@ -8010,7 +8010,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="H291" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
@@ -8018,7 +8018,7 @@
         <v>74</v>
       </c>
       <c r="B292" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C292">
         <v>170</v>
@@ -8036,7 +8036,7 @@
         <v>23.2</v>
       </c>
       <c r="H292" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
@@ -8044,7 +8044,7 @@
         <v>67</v>
       </c>
       <c r="B293" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C293">
         <v>176</v>
@@ -8062,7 +8062,7 @@
         <v>25.8</v>
       </c>
       <c r="H293" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
@@ -8070,7 +8070,7 @@
         <v>31</v>
       </c>
       <c r="B294" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C294">
         <v>160</v>
@@ -8088,7 +8088,7 @@
         <v>21.5</v>
       </c>
       <c r="H294" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
@@ -8096,7 +8096,7 @@
         <v>37</v>
       </c>
       <c r="B295" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C295">
         <v>175</v>
@@ -8114,7 +8114,7 @@
         <v>23.2</v>
       </c>
       <c r="H295" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
@@ -8122,7 +8122,7 @@
         <v>53</v>
       </c>
       <c r="B296" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C296">
         <v>171</v>
@@ -8140,7 +8140,7 @@
         <v>27</v>
       </c>
       <c r="H296" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
@@ -8148,7 +8148,7 @@
         <v>62</v>
       </c>
       <c r="B297" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C297">
         <v>170</v>
@@ -8166,7 +8166,7 @@
         <v>38.1</v>
       </c>
       <c r="H297" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
@@ -8174,7 +8174,7 @@
         <v>40</v>
       </c>
       <c r="B298" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C298">
         <v>176</v>
@@ -8192,7 +8192,7 @@
         <v>23.9</v>
       </c>
       <c r="H298" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
@@ -8200,7 +8200,7 @@
         <v>41</v>
       </c>
       <c r="B299" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C299">
         <v>180</v>
@@ -8218,7 +8218,7 @@
         <v>27.2</v>
       </c>
       <c r="H299" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
@@ -8226,7 +8226,7 @@
         <v>80</v>
       </c>
       <c r="B300" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C300">
         <v>160</v>
@@ -8244,7 +8244,7 @@
         <v>27.3</v>
       </c>
       <c r="H300" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
@@ -8252,7 +8252,7 @@
         <v>69</v>
       </c>
       <c r="B301" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C301">
         <v>160</v>
@@ -8270,7 +8270,7 @@
         <v>23.4</v>
       </c>
       <c r="H301" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -8278,7 +8278,7 @@
         <v>70</v>
       </c>
       <c r="B302" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C302">
         <v>165</v>
@@ -8296,7 +8296,7 @@
         <v>25.7</v>
       </c>
       <c r="H302" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -8304,7 +8304,7 @@
         <v>64</v>
       </c>
       <c r="B303" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C303">
         <v>167</v>
@@ -8322,7 +8322,7 @@
         <v>25.8</v>
       </c>
       <c r="H303" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -8330,7 +8330,7 @@
         <v>57</v>
       </c>
       <c r="B304" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C304">
         <v>170</v>
@@ -8348,7 +8348,7 @@
         <v>22.5</v>
       </c>
       <c r="H304" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -8356,7 +8356,7 @@
         <v>52</v>
       </c>
       <c r="B305" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C305">
         <v>174</v>
@@ -8374,7 +8374,7 @@
         <v>27.1</v>
       </c>
       <c r="H305" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -8382,7 +8382,7 @@
         <v>55</v>
       </c>
       <c r="B306" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C306">
         <v>170</v>
@@ -8400,7 +8400,7 @@
         <v>24.9</v>
       </c>
       <c r="H306" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -8408,7 +8408,7 @@
         <v>37</v>
       </c>
       <c r="B307" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C307">
         <v>170</v>
@@ -8426,7 +8426,7 @@
         <v>31.1</v>
       </c>
       <c r="H307" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
@@ -8434,7 +8434,7 @@
         <v>26</v>
       </c>
       <c r="B308" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C308">
         <v>180</v>
@@ -8452,7 +8452,7 @@
         <v>29.9</v>
       </c>
       <c r="H308" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -8460,7 +8460,7 @@
         <v>59</v>
       </c>
       <c r="B309" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C309">
         <v>161</v>
@@ -8478,7 +8478,7 @@
         <v>36.299999999999997</v>
       </c>
       <c r="H309" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -8486,7 +8486,7 @@
         <v>54</v>
       </c>
       <c r="B310" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C310">
         <v>164</v>
@@ -8504,7 +8504,7 @@
         <v>30.9</v>
       </c>
       <c r="H310" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -8512,7 +8512,7 @@
         <v>38</v>
       </c>
       <c r="B311" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C311">
         <v>170</v>
@@ -8530,7 +8530,7 @@
         <v>23.9</v>
       </c>
       <c r="H311" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -8538,7 +8538,7 @@
         <v>48</v>
       </c>
       <c r="B312" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C312">
         <v>170</v>
@@ -8556,7 +8556,7 @@
         <v>25.6</v>
       </c>
       <c r="H312" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -8564,7 +8564,7 @@
         <v>58</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C313">
         <v>166</v>
@@ -8582,7 +8582,7 @@
         <v>25.4</v>
       </c>
       <c r="H313" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
@@ -8590,7 +8590,7 @@
         <v>67</v>
       </c>
       <c r="B314" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C314">
         <v>168</v>
@@ -8608,7 +8608,7 @@
         <v>23</v>
       </c>
       <c r="H314" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -8616,7 +8616,7 @@
         <v>64</v>
       </c>
       <c r="B315" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C315">
         <v>156</v>
@@ -8634,7 +8634,7 @@
         <v>31.2</v>
       </c>
       <c r="H315" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
@@ -8642,7 +8642,7 @@
         <v>59</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C316">
         <v>155</v>
@@ -8660,7 +8660,7 @@
         <v>30</v>
       </c>
       <c r="H316" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -8668,7 +8668,7 @@
         <v>59</v>
       </c>
       <c r="B317" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C317">
         <v>165</v>
@@ -8686,7 +8686,7 @@
         <v>27.2</v>
       </c>
       <c r="H317" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -8694,7 +8694,7 @@
         <v>65</v>
       </c>
       <c r="B318" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C318">
         <v>171</v>
@@ -8712,7 +8712,7 @@
         <v>29.1</v>
       </c>
       <c r="H318" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -8720,7 +8720,7 @@
         <v>42</v>
       </c>
       <c r="B319" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C319">
         <v>188</v>
@@ -8738,7 +8738,7 @@
         <v>25.7</v>
       </c>
       <c r="H319" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -8746,7 +8746,7 @@
         <v>37</v>
       </c>
       <c r="B320" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C320">
         <v>175</v>
@@ -8764,7 +8764,7 @@
         <v>28.7</v>
       </c>
       <c r="H320" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
@@ -8772,7 +8772,7 @@
         <v>19</v>
       </c>
       <c r="B321" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C321">
         <v>165</v>
@@ -8790,7 +8790,7 @@
         <v>23.9</v>
       </c>
       <c r="H321" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
@@ -8798,7 +8798,7 @@
         <v>47</v>
       </c>
       <c r="B322" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C322">
         <v>160</v>
@@ -8816,7 +8816,7 @@
         <v>25.4</v>
       </c>
       <c r="H322" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -8824,7 +8824,7 @@
         <v>31</v>
       </c>
       <c r="B323" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C323">
         <v>165</v>
@@ -8842,7 +8842,7 @@
         <v>20.6</v>
       </c>
       <c r="H323" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
@@ -8850,7 +8850,7 @@
         <v>33</v>
       </c>
       <c r="B324" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C324">
         <v>165</v>
@@ -8868,7 +8868,7 @@
         <v>21.3</v>
       </c>
       <c r="H324" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
@@ -8876,7 +8876,7 @@
         <v>39</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C325">
         <v>160</v>
@@ -8894,7 +8894,7 @@
         <v>27.3</v>
       </c>
       <c r="H325" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
@@ -8902,7 +8902,7 @@
         <v>42</v>
       </c>
       <c r="B326" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C326">
         <v>172</v>
@@ -8920,7 +8920,7 @@
         <v>28.1</v>
       </c>
       <c r="H326" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -8928,7 +8928,7 @@
         <v>54</v>
       </c>
       <c r="B327" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C327">
         <v>170</v>
@@ -8946,7 +8946,7 @@
         <v>24.2</v>
       </c>
       <c r="H327" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -8954,7 +8954,7 @@
         <v>44</v>
       </c>
       <c r="B328" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C328">
         <v>157</v>
@@ -8972,7 +8972,7 @@
         <v>24.3</v>
       </c>
       <c r="H328" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -8980,7 +8980,7 @@
         <v>48</v>
       </c>
       <c r="B329" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C329">
         <v>162</v>
@@ -8998,7 +8998,7 @@
         <v>32</v>
       </c>
       <c r="H329" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
@@ -9006,7 +9006,7 @@
         <v>72</v>
       </c>
       <c r="B330" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C330">
         <v>165</v>
@@ -9024,7 +9024,7 @@
         <v>23.5</v>
       </c>
       <c r="H330" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
@@ -9032,7 +9032,7 @@
         <v>36</v>
       </c>
       <c r="B331" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C331">
         <v>171</v>
@@ -9050,7 +9050,7 @@
         <v>26</v>
       </c>
       <c r="H331" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -9058,7 +9058,7 @@
         <v>32</v>
       </c>
       <c r="B332" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C332">
         <v>158</v>
@@ -9076,7 +9076,7 @@
         <v>25.2</v>
       </c>
       <c r="H332" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -9084,7 +9084,7 @@
         <v>20</v>
       </c>
       <c r="B333" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C333">
         <v>186</v>
@@ -9102,7 +9102,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="H333" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
@@ -9110,7 +9110,7 @@
         <v>81</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C334">
         <v>165</v>
@@ -9128,7 +9128,7 @@
         <v>22</v>
       </c>
       <c r="H334" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
@@ -9136,7 +9136,7 @@
         <v>34</v>
       </c>
       <c r="B335" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C335">
         <v>165</v>
@@ -9154,7 +9154,7 @@
         <v>22</v>
       </c>
       <c r="H335" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
@@ -9162,7 +9162,7 @@
         <v>62</v>
       </c>
       <c r="B336" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C336">
         <v>178</v>
@@ -9180,7 +9180,7 @@
         <v>28.1</v>
       </c>
       <c r="H336" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
@@ -9188,7 +9188,7 @@
         <v>64</v>
       </c>
       <c r="B337" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C337">
         <v>173</v>
@@ -9206,7 +9206,7 @@
         <v>21</v>
       </c>
       <c r="H337" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
@@ -9214,7 +9214,7 @@
         <v>53</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C338">
         <v>156</v>
@@ -9232,7 +9232,7 @@
         <v>26.7</v>
       </c>
       <c r="H338" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
@@ -9240,7 +9240,7 @@
         <v>48</v>
       </c>
       <c r="B339" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C339">
         <v>160</v>
@@ -9258,7 +9258,7 @@
         <v>18.7</v>
       </c>
       <c r="H339" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
@@ -9266,7 +9266,7 @@
         <v>26</v>
       </c>
       <c r="B340" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C340">
         <v>170</v>
@@ -9284,7 +9284,7 @@
         <v>14.9</v>
       </c>
       <c r="H340" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
@@ -9292,7 +9292,7 @@
         <v>45</v>
       </c>
       <c r="B341" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C341">
         <v>169</v>
@@ -9310,7 +9310,7 @@
         <v>28</v>
       </c>
       <c r="H341" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -9318,7 +9318,7 @@
         <v>47</v>
       </c>
       <c r="B342" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C342">
         <v>175</v>
@@ -9336,7 +9336,7 @@
         <v>26.8</v>
       </c>
       <c r="H342" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
@@ -9344,7 +9344,7 @@
         <v>47</v>
       </c>
       <c r="B343" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C343">
         <v>175</v>
@@ -9362,7 +9362,7 @@
         <v>30.7</v>
       </c>
       <c r="H343" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
@@ -9370,7 +9370,7 @@
         <v>56</v>
       </c>
       <c r="B344" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C344">
         <v>170</v>
@@ -9388,7 +9388,7 @@
         <v>28.4</v>
       </c>
       <c r="H344" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
@@ -9396,7 +9396,7 @@
         <v>40</v>
       </c>
       <c r="B345" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C345">
         <v>150</v>
@@ -9414,7 +9414,7 @@
         <v>21.3</v>
       </c>
       <c r="H345" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
@@ -9422,7 +9422,7 @@
         <v>54</v>
       </c>
       <c r="B346" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C346">
         <v>160</v>
@@ -9440,7 +9440,7 @@
         <v>27.3</v>
       </c>
       <c r="H346" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
@@ -9448,7 +9448,7 @@
         <v>62</v>
       </c>
       <c r="B347" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C347">
         <v>157</v>
@@ -9466,7 +9466,7 @@
         <v>26.4</v>
       </c>
       <c r="H347" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
@@ -9474,7 +9474,7 @@
         <v>40</v>
       </c>
       <c r="B348" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C348">
         <v>170</v>
@@ -9492,7 +9492,7 @@
         <v>23.5</v>
       </c>
       <c r="H348" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -9500,7 +9500,7 @@
         <v>47</v>
       </c>
       <c r="B349" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C349">
         <v>163</v>
@@ -9518,7 +9518,7 @@
         <v>30.1</v>
       </c>
       <c r="H349" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
@@ -9526,7 +9526,7 @@
         <v>57</v>
       </c>
       <c r="B350" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C350">
         <v>170</v>
@@ -9544,7 +9544,7 @@
         <v>22.8</v>
       </c>
       <c r="H350" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
@@ -9552,7 +9552,7 @@
         <v>38</v>
       </c>
       <c r="B351" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C351">
         <v>172</v>
@@ -9570,7 +9570,7 @@
         <v>20.6</v>
       </c>
       <c r="H351" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
@@ -9578,7 +9578,7 @@
         <v>46</v>
       </c>
       <c r="B352" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C352">
         <v>178</v>
@@ -9596,7 +9596,7 @@
         <v>27.1</v>
       </c>
       <c r="H352" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
@@ -9604,7 +9604,7 @@
         <v>43</v>
       </c>
       <c r="B353" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C353">
         <v>165</v>
@@ -9622,7 +9622,7 @@
         <v>29.4</v>
       </c>
       <c r="H353" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
@@ -9630,7 +9630,7 @@
         <v>59</v>
       </c>
       <c r="B354" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C354">
         <v>160</v>
@@ -9648,7 +9648,7 @@
         <v>20.3</v>
       </c>
       <c r="H354" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
@@ -9656,7 +9656,7 @@
         <v>64</v>
       </c>
       <c r="B355" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C355">
         <v>170</v>
@@ -9674,7 +9674,7 @@
         <v>24.2</v>
       </c>
       <c r="H355" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
@@ -9682,7 +9682,7 @@
         <v>30</v>
       </c>
       <c r="B356" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C356">
         <v>181</v>
@@ -9700,7 +9700,7 @@
         <v>23.8</v>
       </c>
       <c r="H356" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
@@ -9708,7 +9708,7 @@
         <v>68</v>
       </c>
       <c r="B357" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C357">
         <v>146</v>
@@ -9726,7 +9726,7 @@
         <v>29.1</v>
       </c>
       <c r="H357" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
@@ -9734,7 +9734,7 @@
         <v>46</v>
       </c>
       <c r="B358" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C358">
         <v>165</v>
@@ -9752,7 +9752,7 @@
         <v>28.3</v>
       </c>
       <c r="H358" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
@@ -9760,7 +9760,7 @@
         <v>48</v>
       </c>
       <c r="B359" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C359">
         <v>182</v>
@@ -9778,7 +9778,7 @@
         <v>23.2</v>
       </c>
       <c r="H359" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
@@ -9786,7 +9786,7 @@
         <v>72</v>
       </c>
       <c r="B360" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C360">
         <v>154</v>
@@ -9804,7 +9804,7 @@
         <v>23.2</v>
       </c>
       <c r="H360" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
@@ -9812,7 +9812,7 @@
         <v>70</v>
       </c>
       <c r="B361" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C361">
         <v>160</v>
@@ -9830,7 +9830,7 @@
         <v>32.799999999999997</v>
       </c>
       <c r="H361" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -9838,7 +9838,7 @@
         <v>67</v>
       </c>
       <c r="B362" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C362">
         <v>163</v>
@@ -9856,7 +9856,7 @@
         <v>29.4</v>
       </c>
       <c r="H362" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
@@ -9864,7 +9864,7 @@
         <v>54</v>
       </c>
       <c r="B363" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C363">
         <v>160</v>
@@ -9882,7 +9882,7 @@
         <v>26.2</v>
       </c>
       <c r="H363" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
@@ -9890,7 +9890,7 @@
         <v>67</v>
       </c>
       <c r="B364" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C364">
         <v>160</v>
@@ -9908,7 +9908,7 @@
         <v>26.6</v>
       </c>
       <c r="H364" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
@@ -9916,7 +9916,7 @@
         <v>66</v>
       </c>
       <c r="B365" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C365">
         <v>168</v>
@@ -9934,7 +9934,7 @@
         <v>29.1</v>
       </c>
       <c r="H365" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -9942,7 +9942,7 @@
         <v>57</v>
       </c>
       <c r="B366" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C366">
         <v>165</v>
@@ -9960,7 +9960,7 @@
         <v>27.2</v>
       </c>
       <c r="H366" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
@@ -9968,7 +9968,7 @@
         <v>36</v>
       </c>
       <c r="B367" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C367">
         <v>185</v>
@@ -9986,7 +9986,7 @@
         <v>27.8</v>
       </c>
       <c r="H367" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
@@ -9994,7 +9994,7 @@
         <v>47</v>
       </c>
       <c r="B368" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C368">
         <v>169</v>
@@ -10012,7 +10012,7 @@
         <v>28</v>
       </c>
       <c r="H368" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -10020,7 +10020,7 @@
         <v>35</v>
       </c>
       <c r="B369" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C369">
         <v>165</v>
@@ -10038,7 +10038,7 @@
         <v>21.7</v>
       </c>
       <c r="H369" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
@@ -10046,7 +10046,7 @@
         <v>75</v>
       </c>
       <c r="B370" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C370">
         <v>162</v>
@@ -10064,7 +10064,7 @@
         <v>28.2</v>
       </c>
       <c r="H370" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
@@ -10072,7 +10072,7 @@
         <v>78</v>
       </c>
       <c r="B371" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C371">
         <v>152</v>
@@ -10090,7 +10090,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="H371" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
@@ -10098,7 +10098,7 @@
         <v>53</v>
       </c>
       <c r="B372" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C372">
         <v>156</v>
@@ -10116,7 +10116,7 @@
         <v>28.8</v>
       </c>
       <c r="H372" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
@@ -10124,7 +10124,7 @@
         <v>44</v>
       </c>
       <c r="B373" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C373">
         <v>170</v>
@@ -10142,7 +10142,7 @@
         <v>29.1</v>
       </c>
       <c r="H373" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
@@ -10150,7 +10150,7 @@
         <v>70</v>
       </c>
       <c r="B374" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C374">
         <v>178</v>
@@ -10168,7 +10168,7 @@
         <v>25.2</v>
       </c>
       <c r="H374" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
@@ -10176,7 +10176,7 @@
         <v>66</v>
       </c>
       <c r="B375" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C375">
         <v>160</v>
@@ -10194,7 +10194,7 @@
         <v>20.7</v>
       </c>
       <c r="H375" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -10202,7 +10202,7 @@
         <v>36</v>
       </c>
       <c r="B376" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C376">
         <v>176</v>
@@ -10220,7 +10220,7 @@
         <v>21</v>
       </c>
       <c r="H376" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
@@ -10228,7 +10228,7 @@
         <v>51</v>
       </c>
       <c r="B377" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C377">
         <v>165</v>
@@ -10246,7 +10246,7 @@
         <v>31.2</v>
       </c>
       <c r="H377" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -10254,7 +10254,7 @@
         <v>59</v>
       </c>
       <c r="B378" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C378">
         <v>174</v>
@@ -10272,7 +10272,7 @@
         <v>24.4</v>
       </c>
       <c r="H378" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -10280,7 +10280,7 @@
         <v>61</v>
       </c>
       <c r="B379" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C379">
         <v>156</v>
@@ -10298,7 +10298,7 @@
         <v>31.6</v>
       </c>
       <c r="H379" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
@@ -10306,7 +10306,7 @@
         <v>45</v>
       </c>
       <c r="B380" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C380">
         <v>158</v>
@@ -10324,7 +10324,7 @@
         <v>26</v>
       </c>
       <c r="H380" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -10332,7 +10332,7 @@
         <v>30</v>
       </c>
       <c r="B381" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C381">
         <v>160</v>
@@ -10350,7 +10350,7 @@
         <v>20.3</v>
       </c>
       <c r="H381" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -10358,7 +10358,7 @@
         <v>47</v>
       </c>
       <c r="B382" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C382">
         <v>175</v>
@@ -10376,7 +10376,7 @@
         <v>30.7</v>
       </c>
       <c r="H382" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
@@ -10384,7 +10384,7 @@
         <v>71</v>
       </c>
       <c r="B383" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C383">
         <v>165</v>
@@ -10402,7 +10402,7 @@
         <v>30.1</v>
       </c>
       <c r="H383" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -10410,7 +10410,7 @@
         <v>55</v>
       </c>
       <c r="B384" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C384">
         <v>160</v>
@@ -10428,7 +10428,7 @@
         <v>27.3</v>
       </c>
       <c r="H384" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -10436,7 +10436,7 @@
         <v>66</v>
       </c>
       <c r="B385" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C385">
         <v>155</v>
@@ -10454,7 +10454,7 @@
         <v>25.8</v>
       </c>
       <c r="H385" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
@@ -10462,7 +10462,7 @@
         <v>62</v>
       </c>
       <c r="B386" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C386">
         <v>165</v>
@@ -10480,7 +10480,7 @@
         <v>25.7</v>
       </c>
       <c r="H386" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
@@ -10488,7 +10488,7 @@
         <v>21</v>
       </c>
       <c r="B387" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C387">
         <v>156</v>
@@ -10506,7 +10506,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="H387" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
@@ -10514,7 +10514,7 @@
         <v>76</v>
       </c>
       <c r="B388" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C388">
         <v>150</v>
@@ -10532,7 +10532,7 @@
         <v>24</v>
       </c>
       <c r="H388" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -10540,7 +10540,7 @@
         <v>25</v>
       </c>
       <c r="B389" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C389">
         <v>160</v>
@@ -10558,7 +10558,7 @@
         <v>21.9</v>
       </c>
       <c r="H389" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
@@ -10566,7 +10566,7 @@
         <v>58</v>
       </c>
       <c r="B390" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C390">
         <v>148</v>
@@ -10584,7 +10584,7 @@
         <v>29.7</v>
       </c>
       <c r="H390" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
@@ -10592,7 +10592,7 @@
         <v>66</v>
       </c>
       <c r="B391" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C391">
         <v>160</v>
@@ -10610,7 +10610,7 @@
         <v>27.3</v>
       </c>
       <c r="H391" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
@@ -10618,7 +10618,7 @@
         <v>57</v>
       </c>
       <c r="B392" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C392">
         <v>172</v>
@@ -10636,7 +10636,7 @@
         <v>25</v>
       </c>
       <c r="H392" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -10644,7 +10644,7 @@
         <v>64</v>
       </c>
       <c r="B393" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C393">
         <v>160</v>
@@ -10662,7 +10662,7 @@
         <v>23.4</v>
       </c>
       <c r="H393" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
@@ -10670,7 +10670,7 @@
         <v>41</v>
       </c>
       <c r="B394" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C394">
         <v>170</v>
@@ -10688,7 +10688,7 @@
         <v>23.2</v>
       </c>
       <c r="H394" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
@@ -10696,7 +10696,7 @@
         <v>53</v>
       </c>
       <c r="B395" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C395">
         <v>160</v>
@@ -10714,7 +10714,7 @@
         <v>23.4</v>
       </c>
       <c r="H395" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
@@ -10722,7 +10722,7 @@
         <v>67</v>
       </c>
       <c r="B396" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C396">
         <v>165</v>
@@ -10740,7 +10740,7 @@
         <v>19.5</v>
       </c>
       <c r="H396" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
@@ -10748,7 +10748,7 @@
         <v>30</v>
       </c>
       <c r="B397" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C397">
         <v>167</v>
@@ -10766,7 +10766,7 @@
         <v>27.6</v>
       </c>
       <c r="H397" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
@@ -10774,7 +10774,7 @@
         <v>27</v>
       </c>
       <c r="B398" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C398">
         <v>167</v>
@@ -10792,7 +10792,7 @@
         <v>17.2</v>
       </c>
       <c r="H398" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
@@ -10800,7 +10800,7 @@
         <v>65</v>
       </c>
       <c r="B399" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C399">
         <v>172</v>
@@ -10818,7 +10818,7 @@
         <v>22.3</v>
       </c>
       <c r="H399" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
@@ -10826,7 +10826,7 @@
         <v>50</v>
       </c>
       <c r="B400" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C400">
         <v>163</v>
@@ -10844,7 +10844,7 @@
         <v>24.5</v>
       </c>
       <c r="H400" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -10852,7 +10852,7 @@
         <v>27</v>
       </c>
       <c r="B401" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C401">
         <v>160</v>
@@ -10870,7 +10870,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="H401" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -10878,7 +10878,7 @@
         <v>58</v>
       </c>
       <c r="B402" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C402">
         <v>160</v>
@@ -10896,7 +10896,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="H402" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -10904,7 +10904,7 @@
         <v>63</v>
       </c>
       <c r="B403" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C403">
         <v>167</v>
@@ -10922,7 +10922,7 @@
         <v>24.4</v>
       </c>
       <c r="H403" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
@@ -10930,7 +10930,7 @@
         <v>29</v>
       </c>
       <c r="B404" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C404">
         <v>162</v>
@@ -10948,7 +10948,7 @@
         <v>21.7</v>
       </c>
       <c r="H404" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
@@ -10956,7 +10956,7 @@
         <v>51</v>
       </c>
       <c r="B405" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C405">
         <v>186</v>
@@ -10974,7 +10974,7 @@
         <v>27.5</v>
       </c>
       <c r="H405" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
@@ -10982,7 +10982,7 @@
         <v>36</v>
       </c>
       <c r="B406" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C406">
         <v>171</v>
@@ -11000,7 +11000,7 @@
         <v>31.8</v>
       </c>
       <c r="H406" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
@@ -11008,7 +11008,7 @@
         <v>35</v>
       </c>
       <c r="B407" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C407">
         <v>160</v>
@@ -11026,7 +11026,7 @@
         <v>20.7</v>
       </c>
       <c r="H407" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
@@ -11034,7 +11034,7 @@
         <v>58</v>
       </c>
       <c r="B408" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C408">
         <v>160</v>
@@ -11052,7 +11052,7 @@
         <v>25.4</v>
       </c>
       <c r="H408" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
@@ -11060,7 +11060,7 @@
         <v>64</v>
       </c>
       <c r="B409" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C409">
         <v>160</v>
@@ -11078,7 +11078,7 @@
         <v>24.6</v>
       </c>
       <c r="H409" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
@@ -11086,7 +11086,7 @@
         <v>47</v>
       </c>
       <c r="B410" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C410">
         <v>166</v>
@@ -11104,7 +11104,7 @@
         <v>20.3</v>
       </c>
       <c r="H410" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -11112,7 +11112,7 @@
         <v>70</v>
       </c>
       <c r="B411" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C411">
         <v>167</v>
@@ -11130,7 +11130,7 @@
         <v>21.5</v>
       </c>
       <c r="H411" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
@@ -11138,7 +11138,7 @@
         <v>20</v>
       </c>
       <c r="B412" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C412">
         <v>178</v>
@@ -11156,7 +11156,7 @@
         <v>20.5</v>
       </c>
       <c r="H412" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -11164,7 +11164,7 @@
         <v>39</v>
       </c>
       <c r="B413" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C413">
         <v>164</v>
@@ -11182,7 +11182,7 @@
         <v>23.1</v>
       </c>
       <c r="H413" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -11190,7 +11190,7 @@
         <v>32</v>
       </c>
       <c r="B414" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C414">
         <v>164</v>
@@ -11208,7 +11208,7 @@
         <v>21.2</v>
       </c>
       <c r="H414" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
@@ -11216,7 +11216,7 @@
         <v>35</v>
       </c>
       <c r="B415" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C415">
         <v>155</v>
@@ -11234,7 +11234,7 @@
         <v>26.2</v>
       </c>
       <c r="H415" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
@@ -11242,7 +11242,7 @@
         <v>37</v>
       </c>
       <c r="B416" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C416">
         <v>175</v>
@@ -11260,7 +11260,7 @@
         <v>26.8</v>
       </c>
       <c r="H416" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.3">
@@ -11268,7 +11268,7 @@
         <v>49</v>
       </c>
       <c r="B417" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C417">
         <v>168</v>
@@ -11286,7 +11286,7 @@
         <v>23.4</v>
       </c>
       <c r="H417" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.3">
@@ -11294,7 +11294,7 @@
         <v>37</v>
       </c>
       <c r="B418" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C418">
         <v>176</v>
@@ -11312,7 +11312,7 @@
         <v>23.2</v>
       </c>
       <c r="H418" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.3">
@@ -11320,7 +11320,7 @@
         <v>37</v>
       </c>
       <c r="B419" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C419">
         <v>160</v>
@@ -11338,7 +11338,7 @@
         <v>19.5</v>
       </c>
       <c r="H419" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
@@ -11346,7 +11346,7 @@
         <v>65</v>
       </c>
       <c r="B420" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C420">
         <v>160</v>
@@ -11364,7 +11364,7 @@
         <v>19.5</v>
       </c>
       <c r="H420" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
@@ -11372,7 +11372,7 @@
         <v>41</v>
       </c>
       <c r="B421" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C421">
         <v>154</v>
@@ -11390,7 +11390,7 @@
         <v>31.6</v>
       </c>
       <c r="H421" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
@@ -11398,7 +11398,7 @@
         <v>29</v>
       </c>
       <c r="B422" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C422">
         <v>166</v>
@@ -11416,7 +11416,7 @@
         <v>22.9</v>
       </c>
       <c r="H422" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
@@ -11424,7 +11424,7 @@
         <v>45</v>
       </c>
       <c r="B423" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C423">
         <v>175</v>
@@ -11442,7 +11442,7 @@
         <v>24.5</v>
       </c>
       <c r="H423" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
@@ -11450,7 +11450,7 @@
         <v>20</v>
       </c>
       <c r="B424" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C424">
         <v>157</v>
@@ -11468,7 +11468,7 @@
         <v>23.1</v>
       </c>
       <c r="H424" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
@@ -11476,7 +11476,7 @@
         <v>53</v>
       </c>
       <c r="B425" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C425">
         <v>160</v>
@@ -11494,7 +11494,7 @@
         <v>27.3</v>
       </c>
       <c r="H425" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
@@ -11502,7 +11502,7 @@
         <v>37</v>
       </c>
       <c r="B426" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C426">
         <v>190</v>
@@ -11520,7 +11520,7 @@
         <v>23.5</v>
       </c>
       <c r="H426" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
@@ -11528,7 +11528,7 @@
         <v>36</v>
       </c>
       <c r="B427" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C427">
         <v>166</v>
@@ -11546,7 +11546,7 @@
         <v>24.7</v>
       </c>
       <c r="H427" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
@@ -11554,7 +11554,7 @@
         <v>32</v>
       </c>
       <c r="B428" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C428">
         <v>155</v>
@@ -11572,7 +11572,7 @@
         <v>22.9</v>
       </c>
       <c r="H428" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
@@ -11580,7 +11580,7 @@
         <v>78</v>
       </c>
       <c r="B429" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C429">
         <v>160</v>
@@ -11598,7 +11598,7 @@
         <v>27.3</v>
       </c>
       <c r="H429" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/arrhythmia.xlsx
+++ b/data/arrhythmia.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\basic_stats_R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582AD821-EB72-4959-BD51-D04B3B8760CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3A07BF-1E34-4600-BE93-71E3658B41F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$429</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:H429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +577,7 @@
         <v>94</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F5">
         <v>71</v>
@@ -727,7 +730,7 @@
         <v>72</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="F11">
         <v>70</v>
@@ -805,7 +808,7 @@
         <v>73</v>
       </c>
       <c r="E14">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="F14">
         <v>56</v>
@@ -1128,7 +1131,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1140,7 +1143,7 @@
         <v>73</v>
       </c>
       <c r="E27">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="F27">
         <v>83</v>
@@ -1761,7 +1764,7 @@
         <v>53</v>
       </c>
       <c r="E51">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="F51">
         <v>65</v>
@@ -2035,7 +2038,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
@@ -2281,7 +2284,7 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="F71">
         <v>69</v>
@@ -2919,7 +2922,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
@@ -2931,7 +2934,7 @@
         <v>55</v>
       </c>
       <c r="E96">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="F96">
         <v>79</v>
@@ -3127,7 +3130,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B104" t="s">
         <v>9</v>
@@ -3737,7 +3740,7 @@
         <v>86</v>
       </c>
       <c r="E127">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="F127">
         <v>76</v>
@@ -3841,7 +3844,7 @@
         <v>90</v>
       </c>
       <c r="E131">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F131">
         <v>63</v>
@@ -3945,7 +3948,7 @@
         <v>74</v>
       </c>
       <c r="E135">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F135">
         <v>68</v>
@@ -4153,7 +4156,7 @@
         <v>60</v>
       </c>
       <c r="E143">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F143">
         <v>62</v>
@@ -4167,7 +4170,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B144" t="s">
         <v>9</v>
@@ -4257,7 +4260,7 @@
         <v>75</v>
       </c>
       <c r="E147">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F147">
         <v>74</v>
@@ -4699,7 +4702,7 @@
         <v>80</v>
       </c>
       <c r="E164">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F164">
         <v>103</v>
@@ -5193,7 +5196,7 @@
         <v>85</v>
       </c>
       <c r="E183">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="F183">
         <v>66</v>
@@ -5245,7 +5248,7 @@
         <v>80</v>
       </c>
       <c r="E185">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F185">
         <v>64</v>
@@ -5453,7 +5456,7 @@
         <v>60</v>
       </c>
       <c r="E193">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F193">
         <v>53</v>
@@ -5571,7 +5574,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B198" t="s">
         <v>9</v>
@@ -5947,7 +5950,7 @@
         <v>77</v>
       </c>
       <c r="E212">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="F212">
         <v>59</v>
@@ -6155,7 +6158,7 @@
         <v>90</v>
       </c>
       <c r="E220">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="F220">
         <v>81</v>
@@ -6207,7 +6210,7 @@
         <v>79</v>
       </c>
       <c r="E222">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="F222">
         <v>72</v>
@@ -6623,7 +6626,7 @@
         <v>65</v>
       </c>
       <c r="E238">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="F238">
         <v>98</v>
@@ -6753,7 +6756,7 @@
         <v>78</v>
       </c>
       <c r="E243">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F243">
         <v>76</v>
@@ -6938,7 +6941,7 @@
         <v>91</v>
       </c>
       <c r="F250">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="G250">
         <v>25.2</v>
@@ -7039,7 +7042,7 @@
         <v>74</v>
       </c>
       <c r="E254">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="F254">
         <v>72</v>
@@ -7079,7 +7082,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B256" t="s">
         <v>9</v>
@@ -7221,7 +7224,7 @@
         <v>106</v>
       </c>
       <c r="E261">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="F261">
         <v>73</v>
@@ -7429,7 +7432,7 @@
         <v>78</v>
       </c>
       <c r="E269">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F269">
         <v>71</v>
@@ -7533,7 +7536,7 @@
         <v>80</v>
       </c>
       <c r="E273">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F273">
         <v>74</v>
@@ -7585,7 +7588,7 @@
         <v>95</v>
       </c>
       <c r="E275">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="F275">
         <v>55</v>
@@ -7666,7 +7669,7 @@
         <v>83</v>
       </c>
       <c r="F278">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G278">
         <v>27</v>
@@ -7845,7 +7848,7 @@
         <v>75</v>
       </c>
       <c r="E285">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F285">
         <v>53</v>
@@ -7949,7 +7952,7 @@
         <v>82</v>
       </c>
       <c r="E289">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F289">
         <v>73</v>
@@ -8056,7 +8059,7 @@
         <v>97</v>
       </c>
       <c r="F293">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="G293">
         <v>25.8</v>
@@ -8067,7 +8070,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B294" t="s">
         <v>9</v>
@@ -8131,7 +8134,7 @@
         <v>79</v>
       </c>
       <c r="E296">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F296">
         <v>50</v>
@@ -8261,7 +8264,7 @@
         <v>60</v>
       </c>
       <c r="E301">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="F301">
         <v>50</v>
@@ -8495,7 +8498,7 @@
         <v>83</v>
       </c>
       <c r="E310">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F310">
         <v>76</v>
@@ -8911,7 +8914,7 @@
         <v>83</v>
       </c>
       <c r="E326">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F326">
         <v>81</v>
@@ -9055,7 +9058,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B332" t="s">
         <v>9</v>
@@ -9301,7 +9304,7 @@
         <v>80</v>
       </c>
       <c r="E341">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F341">
         <v>93</v>
@@ -9509,7 +9512,7 @@
         <v>80</v>
       </c>
       <c r="E349">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="F349">
         <v>67</v>
@@ -9535,7 +9538,7 @@
         <v>66</v>
       </c>
       <c r="E350">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F350">
         <v>50</v>
@@ -9613,7 +9616,7 @@
         <v>80</v>
       </c>
       <c r="E353">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="F353">
         <v>80</v>
@@ -9847,7 +9850,7 @@
         <v>78</v>
       </c>
       <c r="E362">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="F362">
         <v>69</v>
@@ -10133,7 +10136,7 @@
         <v>84</v>
       </c>
       <c r="E373">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F373">
         <v>77</v>
@@ -10211,7 +10214,7 @@
         <v>65</v>
       </c>
       <c r="E376">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="F376">
         <v>85</v>
@@ -10237,7 +10240,7 @@
         <v>85</v>
       </c>
       <c r="E377">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="F377">
         <v>75</v>
@@ -10601,7 +10604,7 @@
         <v>70</v>
       </c>
       <c r="E391">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F391">
         <v>66</v>
@@ -10653,7 +10656,7 @@
         <v>60</v>
       </c>
       <c r="E393">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F393">
         <v>61</v>
@@ -10783,7 +10786,7 @@
         <v>48</v>
       </c>
       <c r="E398">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="F398">
         <v>89</v>
@@ -11043,7 +11046,7 @@
         <v>65</v>
       </c>
       <c r="E408">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F408">
         <v>70</v>
@@ -11173,7 +11176,7 @@
         <v>62</v>
       </c>
       <c r="E413">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="F413">
         <v>81</v>
@@ -11407,7 +11410,7 @@
         <v>63</v>
       </c>
       <c r="E422">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F422">
         <v>78</v>
@@ -11589,7 +11592,7 @@
         <v>70</v>
       </c>
       <c r="E429">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="F429">
         <v>75</v>

--- a/data/arrhythmia.xlsx
+++ b/data/arrhythmia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\basic_stats_R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3A07BF-1E34-4600-BE93-71E3658B41F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BC437E-DAD2-4AA7-A935-0E4CA62F4EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/arrhythmia.xlsx
+++ b/data/arrhythmia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\basic_stats_R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BC437E-DAD2-4AA7-A935-0E4CA62F4EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E742CBEE-124E-4995-92A6-E6ED04FD60CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:H429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,7 +900,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
